--- a/public/import_template/customer_import_template.xlsx
+++ b/public/import_template/customer_import_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24211"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CEA8D86-A7AF-4D38-89E0-250E31677850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Customer ID</t>
   </si>
@@ -125,13 +124,16 @@
   </si>
   <si>
     <t>1991/03/31</t>
+  </si>
+  <si>
+    <t>Credit Limit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -286,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -480,21 +482,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -508,10 +510,10 @@
     <col min="11" max="11" width="22.85546875" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" customWidth="1"/>
     <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +568,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -620,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -676,76 +681,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{40B9DB0F-AAE1-4FF9-A247-6C2DB0BD2811}"/>
-    <hyperlink ref="G3:G16" r:id="rId2" display="ImSupplier1@gmail.com" xr:uid="{88D0E5E8-F1E0-4A41-8800-CE54179F47F4}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{E9F28BF8-A443-4CBD-A086-771ED3F9A65C}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3:G16" r:id="rId2" display="ImSupplier1@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/import_template/customer_import_template.xlsx
+++ b/public/import_template/customer_import_template.xlsx
@@ -98,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -157,8 +157,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,7 +466,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
     <col min="11" max="11" width="22.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="26.7109375" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" style="6" customWidth="1"/>
     <col min="18" max="18" width="25.140625" style="6" customWidth="1"/>
@@ -541,10 +541,10 @@
         <v>6</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>9</v>
